--- a/DB/Vorlagen für BSP-Daten/Tag.xlsx
+++ b/DB/Vorlagen für BSP-Daten/Tag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henri\Documents\GitHub\location-based-recommendations\DB\Vorlagen für BSP-Daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB09AC4-5D5B-49DE-9D20-8450834A7B83}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B6DED1-6C59-4515-AFEB-00F4FEB2A9B9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7680" xr2:uid="{777B241D-2413-477B-A0F6-6109643E7BDF}"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="20490" windowHeight="7680" xr2:uid="{777B241D-2413-477B-A0F6-6109643E7BDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>tag_id</t>
   </si>
@@ -34,6 +34,27 @@
   </si>
   <si>
     <t>tag_description</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t>Ort zum betrinken</t>
+  </si>
+  <si>
+    <t>Konzert</t>
+  </si>
+  <si>
+    <t>Festival</t>
+  </si>
+  <si>
+    <t>Zelten, Musik und Trinken</t>
+  </si>
+  <si>
+    <t>Disco</t>
+  </si>
+  <si>
+    <t>Tanzen und Flirten</t>
   </si>
 </sst>
 </file>
@@ -385,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DCCE99-B50C-4017-AB70-5721A5B6896F}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,6 +429,35 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
